--- a/data/league_data/spain/19/spain_passing.xlsx
+++ b/data/league_data/spain/19/spain_passing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8417D5-3548-9647-A58B-75D842F31A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA35479-4803-0F40-811A-F40527360D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="585">
   <si>
     <t>Rk</t>
   </si>
@@ -1769,12 +1769,18 @@
   </si>
   <si>
     <t>Toni Moya</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2635,14 +2641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2672,7 +2678,7 @@
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4696,7 +4702,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4972,7 +4978,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5064,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5156,7 +5162,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6168,7 +6174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6720,7 +6726,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7272,7 +7278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7456,7 +7462,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7548,7 +7554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7732,7 +7738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8008,7 +8014,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8836,7 +8842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8928,7 +8934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9112,7 +9118,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9204,7 +9210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9296,7 +9302,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9480,7 +9486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9572,7 +9578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9664,7 +9670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9756,7 +9762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9848,7 +9854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9940,7 +9946,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10032,7 +10038,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10124,7 +10130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10216,7 +10222,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10308,7 +10314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10400,7 +10406,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10492,7 +10498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10584,7 +10590,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10676,7 +10682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10768,7 +10774,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10860,7 +10866,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10952,7 +10958,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11044,7 +11050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11136,7 +11142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11228,7 +11234,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11320,7 +11326,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11412,7 +11418,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11504,7 +11510,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11596,7 +11602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11780,7 +11786,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11964,7 +11970,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12056,7 +12062,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12148,7 +12154,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12332,7 +12338,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12424,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12516,7 +12522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12608,7 +12614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -12700,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -12792,7 +12798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -12884,7 +12890,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -12976,7 +12982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13068,7 +13074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13252,12 +13258,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>186</v>
+        <v>584</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>21</v>
@@ -13344,7 +13350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13436,7 +13442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13528,7 +13534,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13620,7 +13626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -13712,7 +13718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -13804,7 +13810,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -13896,7 +13902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -13988,7 +13994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14080,7 +14086,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14172,7 +14178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14264,7 +14270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14356,7 +14362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14448,7 +14454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14540,7 +14546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -14632,7 +14638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -14724,7 +14730,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -14816,7 +14822,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -14908,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15000,7 +15006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15092,7 +15098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15184,7 +15190,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15276,7 +15282,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15368,7 +15374,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15460,7 +15466,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15552,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15644,7 +15650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -15736,7 +15742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -15828,7 +15834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -15920,7 +15926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16012,7 +16018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16104,7 +16110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16196,7 +16202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16288,7 +16294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16380,7 +16386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16472,7 +16478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -16564,7 +16570,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -16656,7 +16662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -16748,7 +16754,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -16840,7 +16846,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -16932,7 +16938,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17024,7 +17030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -17116,7 +17122,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -17208,7 +17214,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -17300,7 +17306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -17392,7 +17398,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -17484,7 +17490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -17576,7 +17582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -17668,7 +17674,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -17760,7 +17766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -17852,7 +17858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -17944,7 +17950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -18036,7 +18042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -18128,7 +18134,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -18220,7 +18226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -18312,7 +18318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -18404,7 +18410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -18496,7 +18502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -18588,7 +18594,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -18680,7 +18686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -18772,7 +18778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -18864,7 +18870,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -18956,7 +18962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -19048,7 +19054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -19140,7 +19146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -19232,7 +19238,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -19324,7 +19330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -19416,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -19508,7 +19514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -19600,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -19692,7 +19698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -19784,7 +19790,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -19876,7 +19882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -19968,7 +19974,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -20060,7 +20066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -20152,7 +20158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -20244,7 +20250,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -20336,7 +20342,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -20428,7 +20434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -20520,7 +20526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -20612,7 +20618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -20704,7 +20710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -20796,7 +20802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -20888,7 +20894,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -20980,7 +20986,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -21072,7 +21078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -21164,7 +21170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -21256,7 +21262,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -21348,7 +21354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -21440,7 +21446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -21532,7 +21538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -21624,7 +21630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -21716,7 +21722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -21808,7 +21814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -21900,7 +21906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -21992,7 +21998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -22084,7 +22090,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -22176,7 +22182,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -22268,7 +22274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -22360,7 +22366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -22452,7 +22458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -22544,7 +22550,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -22636,7 +22642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -22728,7 +22734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -22820,7 +22826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -22912,7 +22918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -23004,7 +23010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -23096,12 +23102,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>46</v>
+        <v>583</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>21</v>
@@ -23188,7 +23194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -23280,7 +23286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -23372,7 +23378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -23464,7 +23470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -23556,7 +23562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -23648,7 +23654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -23740,7 +23746,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -23832,7 +23838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -23924,7 +23930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -24016,7 +24022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -24108,7 +24114,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -24200,7 +24206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -24292,7 +24298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -24384,7 +24390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -24476,7 +24482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -24568,7 +24574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -24660,7 +24666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -24752,7 +24758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -24844,7 +24850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -24936,7 +24942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -25028,7 +25034,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -25120,7 +25126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -25212,7 +25218,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -25304,7 +25310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -25396,7 +25402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -25488,7 +25494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -25580,7 +25586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -25672,7 +25678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -25764,7 +25770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -25856,7 +25862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -25948,7 +25954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -26040,7 +26046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -26132,7 +26138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -26224,7 +26230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -26316,7 +26322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -26408,7 +26414,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -26500,7 +26506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -26592,7 +26598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -26684,7 +26690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -26776,7 +26782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -26868,7 +26874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -26960,7 +26966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -27052,7 +27058,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -27144,7 +27150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -27236,7 +27242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -27328,7 +27334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -27420,7 +27426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -27512,7 +27518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -27604,7 +27610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -27696,7 +27702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -27788,7 +27794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -27880,7 +27886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -27972,7 +27978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -28064,7 +28070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -28156,7 +28162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -28248,7 +28254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -28340,7 +28346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -28432,7 +28438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -28524,7 +28530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -28616,7 +28622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -28708,7 +28714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -28800,7 +28806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -28892,7 +28898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -28984,7 +28990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -29076,7 +29082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -29168,7 +29174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -29260,7 +29266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -29352,7 +29358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -29444,7 +29450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -29536,7 +29542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -29628,7 +29634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -29720,7 +29726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -29812,7 +29818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -29904,7 +29910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -29996,7 +30002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -30088,7 +30094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -30180,7 +30186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -30272,7 +30278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -30364,7 +30370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -30456,7 +30462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -30548,7 +30554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -30640,7 +30646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -30732,7 +30738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -30824,7 +30830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -30916,7 +30922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -31008,7 +31014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -31100,7 +31106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -31192,7 +31198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -31284,7 +31290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -31376,7 +31382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -31468,7 +31474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -31560,7 +31566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -31652,7 +31658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -31744,7 +31750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -31836,7 +31842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -31928,7 +31934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -32020,7 +32026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -32112,7 +32118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -32204,7 +32210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -32296,7 +32302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -32388,7 +32394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -32480,7 +32486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -32572,7 +32578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -32664,7 +32670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -32756,7 +32762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -32848,7 +32854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -32940,7 +32946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -33032,7 +33038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -33124,7 +33130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -33216,7 +33222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -33308,7 +33314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -33400,7 +33406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -33492,7 +33498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -33584,7 +33590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -33676,7 +33682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -33768,7 +33774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -33860,7 +33866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -33952,7 +33958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -34044,7 +34050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -34136,7 +34142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -34228,7 +34234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -34320,7 +34326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -34412,7 +34418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -34504,7 +34510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -34596,7 +34602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -34688,7 +34694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -34780,7 +34786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -34872,7 +34878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -34964,7 +34970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -35056,7 +35062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -35148,7 +35154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -35240,7 +35246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -35332,7 +35338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -35424,7 +35430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -35516,7 +35522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -35608,7 +35614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -35700,7 +35706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -35792,7 +35798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -35884,7 +35890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -35976,7 +35982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -36068,7 +36074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -36160,7 +36166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -36252,7 +36258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -36344,7 +36350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -36436,7 +36442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -36528,7 +36534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -36620,7 +36626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -36712,7 +36718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -36804,7 +36810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -36896,7 +36902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -36988,7 +36994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -37080,7 +37086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -37172,7 +37178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -37264,7 +37270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -37356,7 +37362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -37448,7 +37454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -37540,7 +37546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -37632,7 +37638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -37724,7 +37730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -37816,7 +37822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -37908,7 +37914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -38000,7 +38006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -38092,7 +38098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -38184,7 +38190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -38276,7 +38282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -38368,7 +38374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -38460,7 +38466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -38552,7 +38558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -38644,7 +38650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -38736,7 +38742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -38828,7 +38834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -38920,7 +38926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -39012,7 +39018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -39104,7 +39110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -39196,7 +39202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -39288,7 +39294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -39380,7 +39386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -39472,7 +39478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -39564,7 +39570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -39656,7 +39662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -39748,7 +39754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -39840,7 +39846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -39932,7 +39938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -40024,7 +40030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -40116,7 +40122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -40208,7 +40214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -40300,7 +40306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -40392,7 +40398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -40484,7 +40490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -40576,7 +40582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -40668,7 +40674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -40760,7 +40766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -40852,7 +40858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -40944,7 +40950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -41036,7 +41042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -41128,7 +41134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -41220,7 +41226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -41312,7 +41318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -41404,7 +41410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -41496,7 +41502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -41588,7 +41594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -41680,7 +41686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -41772,7 +41778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -41864,7 +41870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -41956,7 +41962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -42048,7 +42054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -42140,7 +42146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -42232,7 +42238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -42324,7 +42330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -42416,7 +42422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -42508,7 +42514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -42600,7 +42606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -42692,7 +42698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -42784,7 +42790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -42876,7 +42882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -42968,7 +42974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -43060,7 +43066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -43152,7 +43158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -43244,7 +43250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -43336,7 +43342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -43428,7 +43434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -43520,7 +43526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -43612,7 +43618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -43704,7 +43710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -43796,7 +43802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -43888,7 +43894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -43980,7 +43986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -44072,7 +44078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -44164,7 +44170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -44256,7 +44262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -44348,7 +44354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -44440,7 +44446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -44532,7 +44538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -44624,7 +44630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -44716,7 +44722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -44808,7 +44814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -44900,7 +44906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -44992,7 +44998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -45084,7 +45090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -45176,7 +45182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -45268,7 +45274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -45360,7 +45366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -45452,7 +45458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -45544,7 +45550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -45636,7 +45642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -45728,7 +45734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -45820,7 +45826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -45912,7 +45918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -46004,7 +46010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -46096,7 +46102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -46188,7 +46194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -46280,7 +46286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -46372,7 +46378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -46464,7 +46470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -46556,7 +46562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -46648,7 +46654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -46740,7 +46746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -46832,7 +46838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -46924,7 +46930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -47016,7 +47022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -47108,7 +47114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -47200,7 +47206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -47292,7 +47298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -47384,7 +47390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -47476,7 +47482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -47568,7 +47574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -47660,7 +47666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -47752,7 +47758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -47844,7 +47850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -47936,7 +47942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -48028,7 +48034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -48118,7 +48124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -48208,7 +48214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -48300,7 +48306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -48392,7 +48398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -48484,7 +48490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -48576,7 +48582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -48668,7 +48674,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/19/spain_passing.xlsx
+++ b/data/league_data/spain/19/spain_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA35479-4803-0F40-811A-F40527360D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343C31F-610C-7547-AE16-C34CC2BA580B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="587">
   <si>
     <t>Rk</t>
   </si>
@@ -1084,9 +1084,6 @@
     <t>Rubén Pardo</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Gonzalo Melero</t>
   </si>
   <si>
@@ -1775,6 +1772,15 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2644,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13263,7 +13269,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>21</v>
@@ -23107,7 +23113,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>21</v>
@@ -26419,7 +26425,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>318</v>
+        <v>586</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>21</v>
@@ -27707,7 +27713,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>354</v>
+        <v>585</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>71</v>
@@ -27799,7 +27805,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>21</v>
@@ -27891,7 +27897,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>184</v>
@@ -27983,7 +27989,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>21</v>
@@ -28075,7 +28081,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>21</v>
@@ -28167,7 +28173,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>184</v>
@@ -28259,7 +28265,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>21</v>
@@ -28351,7 +28357,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>21</v>
@@ -28443,7 +28449,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>33</v>
@@ -28535,7 +28541,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>129</v>
@@ -28627,7 +28633,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>21</v>
@@ -28719,7 +28725,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>21</v>
@@ -28811,7 +28817,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>21</v>
@@ -28903,7 +28909,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>21</v>
@@ -28995,7 +29001,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>21</v>
@@ -29087,7 +29093,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>173</v>
@@ -29179,10 +29185,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C289" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>35</v>
@@ -29271,7 +29277,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>71</v>
@@ -29363,7 +29369,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>21</v>
@@ -29455,7 +29461,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>21</v>
@@ -29547,7 +29553,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>21</v>
@@ -29639,7 +29645,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>40</v>
@@ -29731,7 +29737,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>21</v>
@@ -29823,7 +29829,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>21</v>
@@ -29915,7 +29921,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>21</v>
@@ -30007,7 +30013,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>290</v>
@@ -30099,7 +30105,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>21</v>
@@ -30191,7 +30197,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>21</v>
@@ -30283,7 +30289,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>21</v>
@@ -30375,7 +30381,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>40</v>
@@ -30467,7 +30473,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>21</v>
@@ -30559,7 +30565,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>21</v>
@@ -30651,7 +30657,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>106</v>
@@ -30743,7 +30749,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>38</v>
@@ -30835,7 +30841,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>21</v>
@@ -30927,7 +30933,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>378</v>
+        <v>584</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>21</v>
@@ -31019,7 +31025,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>103</v>
@@ -31111,10 +31117,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C310" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>43</v>
@@ -31203,7 +31209,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>21</v>
@@ -31295,7 +31301,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>21</v>
@@ -31387,7 +31393,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>106</v>
@@ -31479,10 +31485,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C314" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>397</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>30</v>
@@ -31571,7 +31577,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>21</v>
@@ -31663,7 +31669,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>21</v>
@@ -31755,7 +31761,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>33</v>
@@ -31847,7 +31853,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>193</v>
@@ -31939,7 +31945,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>21</v>
@@ -32031,7 +32037,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>21</v>
@@ -32123,7 +32129,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>21</v>
@@ -32215,7 +32221,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>106</v>
@@ -32307,7 +32313,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>21</v>
@@ -32399,7 +32405,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>21</v>
@@ -32491,7 +32497,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>21</v>
@@ -32583,10 +32589,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C326" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>22</v>
@@ -32675,7 +32681,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>33</v>
@@ -32767,7 +32773,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>324</v>
@@ -32859,7 +32865,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>21</v>
@@ -32951,7 +32957,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>71</v>
@@ -33135,7 +33141,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>184</v>
@@ -33227,7 +33233,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>191</v>
@@ -33319,7 +33325,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>21</v>
@@ -33411,7 +33417,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>21</v>
@@ -33503,7 +33509,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>21</v>
@@ -33595,10 +33601,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C337" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>85</v>
@@ -33687,10 +33693,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C338" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>41</v>
@@ -33779,10 +33785,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>43</v>
@@ -33871,7 +33877,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>21</v>
@@ -33963,7 +33969,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>176</v>
@@ -34055,7 +34061,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>21</v>
@@ -34147,7 +34153,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>218</v>
@@ -34239,7 +34245,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>40</v>
@@ -34331,7 +34337,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>21</v>
@@ -34423,7 +34429,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>21</v>
@@ -34515,7 +34521,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>21</v>
@@ -34607,7 +34613,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>103</v>
@@ -34699,10 +34705,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C349" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>43</v>
@@ -34791,7 +34797,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>68</v>
@@ -34883,7 +34889,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>296</v>
@@ -34975,7 +34981,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>230</v>
@@ -35067,7 +35073,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>103</v>
@@ -35159,7 +35165,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>149</v>
@@ -35251,7 +35257,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>290</v>
@@ -35343,7 +35349,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>351</v>
@@ -35435,10 +35441,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>136</v>
@@ -35527,7 +35533,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>33</v>
@@ -35619,7 +35625,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>262</v>
@@ -35711,7 +35717,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>21</v>
@@ -35803,7 +35809,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>21</v>
@@ -35895,7 +35901,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>21</v>
@@ -35987,7 +35993,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>149</v>
@@ -36079,7 +36085,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>21</v>
@@ -36171,7 +36177,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>71</v>
@@ -36263,7 +36269,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>21</v>
@@ -36355,10 +36361,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C367" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>41</v>
@@ -36447,7 +36453,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>21</v>
@@ -36539,7 +36545,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>21</v>
@@ -36631,7 +36637,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>71</v>
@@ -36723,7 +36729,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>21</v>
@@ -36815,7 +36821,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>21</v>
@@ -36907,10 +36913,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C373" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>41</v>
@@ -36999,7 +37005,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>103</v>
@@ -37091,7 +37097,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>21</v>
@@ -37183,7 +37189,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>21</v>
@@ -37275,7 +37281,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>173</v>
@@ -37459,7 +37465,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>21</v>
@@ -37551,7 +37557,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>21</v>
@@ -37643,7 +37649,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>262</v>
@@ -37735,7 +37741,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>33</v>
@@ -37827,10 +37833,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>136</v>
@@ -37919,7 +37925,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>68</v>
@@ -38011,10 +38017,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C385" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>41</v>
@@ -38103,7 +38109,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>21</v>
@@ -38195,7 +38201,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>40</v>
@@ -38287,7 +38293,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>21</v>
@@ -38379,7 +38385,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>21</v>
@@ -38471,7 +38477,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>103</v>
@@ -38563,10 +38569,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>30</v>
@@ -38655,7 +38661,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>173</v>
@@ -38747,10 +38753,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C393" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>35</v>
@@ -38839,7 +38845,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>21</v>
@@ -38931,7 +38937,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>21</v>
@@ -39023,7 +39029,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>21</v>
@@ -39115,7 +39121,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>21</v>
@@ -39207,7 +39213,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>103</v>
@@ -39299,7 +39305,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>140</v>
@@ -39391,7 +39397,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>184</v>
@@ -39483,7 +39489,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>21</v>
@@ -39575,7 +39581,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>211</v>
@@ -39667,7 +39673,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>184</v>
@@ -39759,10 +39765,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C404" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>30</v>
@@ -39851,7 +39857,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>21</v>
@@ -39943,7 +39949,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>21</v>
@@ -40035,7 +40041,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>21</v>
@@ -40127,7 +40133,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>33</v>
@@ -40219,7 +40225,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>40</v>
@@ -40311,7 +40317,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>40</v>
@@ -40403,10 +40409,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C411" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="C411" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>41</v>
@@ -40495,7 +40501,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>21</v>
@@ -40587,7 +40593,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>71</v>
@@ -40679,7 +40685,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>21</v>
@@ -40771,7 +40777,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>21</v>
@@ -40863,7 +40869,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>21</v>
@@ -40955,7 +40961,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>21</v>
@@ -41047,7 +41053,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>21</v>
@@ -41139,10 +41145,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>85</v>
@@ -41231,7 +41237,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>21</v>
@@ -41415,10 +41421,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C422" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="C422" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>43</v>
@@ -41507,7 +41513,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>176</v>
@@ -41599,10 +41605,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>22</v>
@@ -41691,7 +41697,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>211</v>
@@ -41783,7 +41789,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>21</v>
@@ -41875,7 +41881,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>191</v>
@@ -41967,7 +41973,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>21</v>
@@ -42059,7 +42065,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>149</v>
@@ -42151,7 +42157,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>21</v>
@@ -42243,7 +42249,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>140</v>
@@ -42335,7 +42341,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>21</v>
@@ -42427,7 +42433,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>21</v>
@@ -42519,7 +42525,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>21</v>
@@ -42611,7 +42617,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>140</v>
@@ -42703,10 +42709,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>35</v>
@@ -42795,7 +42801,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>71</v>
@@ -42887,7 +42893,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>21</v>
@@ -42979,7 +42985,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>21</v>
@@ -43071,7 +43077,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>21</v>
@@ -43163,7 +43169,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>21</v>
@@ -43255,7 +43261,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>33</v>
@@ -43347,7 +43353,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>21</v>
@@ -43439,7 +43445,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>40</v>
@@ -43531,7 +43537,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>21</v>
@@ -43623,7 +43629,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>324</v>
@@ -43715,7 +43721,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>21</v>
@@ -43807,7 +43813,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>21</v>
@@ -43899,7 +43905,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>21</v>
@@ -43991,7 +43997,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>21</v>
@@ -44083,7 +44089,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>230</v>
@@ -44175,7 +44181,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>21</v>
@@ -44267,7 +44273,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>262</v>
@@ -44359,7 +44365,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>21</v>
@@ -44451,7 +44457,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>21</v>
@@ -44543,7 +44549,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>191</v>
@@ -44635,7 +44641,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>230</v>
@@ -44727,7 +44733,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>184</v>
@@ -44819,7 +44825,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>71</v>
@@ -44911,7 +44917,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>193</v>
@@ -45003,7 +45009,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>53</v>
@@ -45095,7 +45101,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>33</v>
@@ -45187,7 +45193,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>21</v>
@@ -45279,7 +45285,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>103</v>
@@ -45371,7 +45377,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>21</v>
@@ -45463,7 +45469,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>103</v>
@@ -45555,7 +45561,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>184</v>
@@ -45647,7 +45653,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>21</v>
@@ -45739,7 +45745,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>21</v>
@@ -45831,7 +45837,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>21</v>
@@ -45923,7 +45929,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>21</v>
@@ -46015,7 +46021,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>21</v>
@@ -46107,7 +46113,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>21</v>
@@ -46199,7 +46205,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>21</v>
@@ -46291,7 +46297,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>103</v>
@@ -46383,7 +46389,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>230</v>
@@ -46475,7 +46481,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>21</v>
@@ -46567,10 +46573,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>43</v>
@@ -46659,7 +46665,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>21</v>
@@ -46751,7 +46757,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>106</v>
@@ -46843,7 +46849,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>21</v>
@@ -46935,7 +46941,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>21</v>
@@ -47027,7 +47033,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>40</v>
@@ -47119,7 +47125,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>21</v>
@@ -47211,7 +47217,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>21</v>
@@ -47303,7 +47309,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>129</v>
@@ -47395,7 +47401,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>21</v>
@@ -47487,7 +47493,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>129</v>
@@ -47579,7 +47585,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>21</v>
@@ -47671,7 +47677,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>21</v>
@@ -47763,7 +47769,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>21</v>
@@ -47855,7 +47861,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>21</v>
@@ -47947,7 +47953,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>21</v>
@@ -48039,7 +48045,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>103</v>
@@ -48129,7 +48135,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>21</v>
@@ -48219,7 +48225,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>21</v>
@@ -48311,7 +48317,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>21</v>
@@ -48403,7 +48409,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>165</v>
@@ -48495,7 +48501,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>21</v>
@@ -48587,7 +48593,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>129</v>

--- a/data/league_data/spain/19/spain_passing.xlsx
+++ b/data/league_data/spain/19/spain_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343C31F-610C-7547-AE16-C34CC2BA580B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD350ABC-2897-3F40-917E-F64C2B7FB18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1594,9 +1594,6 @@
     <t>Cheick Doukouré</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Ignasi Miquel</t>
   </si>
   <si>
@@ -1781,6 +1778,9 @@
   </si>
   <si>
     <t>Juanfran Moreno</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2650,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13269,7 +13269,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>21</v>
@@ -23113,7 +23113,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>21</v>
@@ -26425,7 +26425,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>21</v>
@@ -27713,7 +27713,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>71</v>
@@ -30933,7 +30933,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>21</v>
@@ -42801,7 +42801,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>71</v>
@@ -42893,7 +42893,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>21</v>
@@ -42985,7 +42985,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>21</v>
@@ -43077,7 +43077,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>21</v>
@@ -43169,7 +43169,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>21</v>
@@ -43261,7 +43261,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>33</v>
@@ -43353,7 +43353,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>21</v>
@@ -43445,7 +43445,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>40</v>
@@ -43537,7 +43537,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>21</v>
@@ -43629,7 +43629,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>324</v>
@@ -43721,7 +43721,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>21</v>
@@ -43813,7 +43813,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>21</v>
@@ -43905,7 +43905,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>21</v>
@@ -43997,7 +43997,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>21</v>
@@ -44089,7 +44089,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>230</v>
@@ -44181,7 +44181,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>21</v>
@@ -44273,7 +44273,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>262</v>
@@ -44365,7 +44365,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>21</v>
@@ -44457,7 +44457,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>21</v>
@@ -44549,7 +44549,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>191</v>
@@ -44641,7 +44641,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>230</v>
@@ -44733,7 +44733,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>184</v>
@@ -44825,7 +44825,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>71</v>
@@ -44917,7 +44917,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>193</v>
@@ -45009,7 +45009,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>53</v>
@@ -45101,7 +45101,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>33</v>
@@ -45193,7 +45193,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>21</v>
@@ -45285,7 +45285,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>103</v>
@@ -45377,7 +45377,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>21</v>
@@ -45469,7 +45469,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>103</v>
@@ -45653,7 +45653,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>21</v>
@@ -45745,7 +45745,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>21</v>
@@ -45929,7 +45929,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>21</v>
@@ -46021,7 +46021,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>21</v>
@@ -46113,7 +46113,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>21</v>
@@ -46205,7 +46205,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>21</v>
@@ -46297,7 +46297,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>103</v>
@@ -46389,7 +46389,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>230</v>
@@ -46481,7 +46481,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>21</v>
@@ -46573,7 +46573,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>480</v>
@@ -46665,7 +46665,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>21</v>
@@ -46849,7 +46849,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>21</v>
@@ -46941,7 +46941,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>21</v>
@@ -47033,7 +47033,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>40</v>
@@ -47125,7 +47125,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>21</v>
@@ -47217,7 +47217,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>21</v>
@@ -47309,7 +47309,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>129</v>
@@ -47401,7 +47401,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>21</v>
@@ -47493,7 +47493,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>129</v>
@@ -47585,7 +47585,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>21</v>
@@ -47677,7 +47677,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>21</v>
@@ -47769,7 +47769,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>21</v>
@@ -47861,7 +47861,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>21</v>
@@ -47953,7 +47953,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>21</v>
@@ -48045,7 +48045,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>103</v>
@@ -48135,7 +48135,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>21</v>
@@ -48225,7 +48225,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>21</v>
@@ -48317,7 +48317,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>21</v>
@@ -48409,7 +48409,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>165</v>
@@ -48501,7 +48501,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>21</v>
@@ -48593,7 +48593,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>129</v>
